--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF5B69-8EE3-4144-8B7B-97ECB1436365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF06879F-7EF3-46E0-9D1E-3C97AF8BBA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1459,54 +1481,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1516,28 +1553,100 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1555,12 +1664,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1576,9 +1679,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1591,88 +1691,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1696,65 +1718,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495968</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>136164</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>260276</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>146196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagine 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EE7E59-D7E5-5433-EA52-7D2893F5545A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5910564" y="1279164"/>
-          <a:ext cx="2138231" cy="4772532"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>322386</xdr:colOff>
+      <xdr:colOff>322387</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>157539</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438919</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1770,15 +1743,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="322386" y="1223596"/>
-          <a:ext cx="4656268" cy="2667000"/>
+          <a:off x="322387" y="1170842"/>
+          <a:ext cx="4459932" cy="2369527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,6 +1810,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2135,9 +2172,9 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -2279,14 +2316,14 @@
   </sheetPr>
   <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2302,18 +2339,18 @@
       <c r="I1" s="51"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="49" t="s">
@@ -2355,11 +2392,11 @@
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="I8" s="10"/>
-      <c r="Q8" s="54" t="s">
+      <c r="Q8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
       <c r="T8" s="28">
         <v>5</v>
       </c>
@@ -2368,19 +2405,19 @@
       <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="I9" s="32"/>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
       <c r="T9" s="28">
         <v>5</v>
       </c>
@@ -2389,27 +2426,29 @@
       <c r="B10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="Q10" s="54" t="s">
+      <c r="I10" s="57" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
+      <c r="Q10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="R10" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="54"/>
+      <c r="S10" s="66"/>
       <c r="T10" s="28">
         <v>5</v>
       </c>
@@ -2418,58 +2457,58 @@
       <c r="B11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
       <c r="Q13" s="49" t="s">
         <v>47</v>
       </c>
@@ -2481,29 +2520,29 @@
       <c r="B14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="63"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="62"/>
       <c r="Q15" s="26" t="s">
         <v>15</v>
       </c>
@@ -2514,13 +2553,13 @@
       <c r="T15" s="67"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="63"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="62"/>
       <c r="Q16" s="29" t="s">
         <v>50</v>
       </c>
@@ -2531,13 +2570,13 @@
       <c r="T16" s="52"/>
     </row>
     <row r="17" spans="9:21">
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="63"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
       <c r="Q17" s="29" t="s">
         <v>51</v>
       </c>
@@ -2548,13 +2587,13 @@
       <c r="T17" s="52"/>
     </row>
     <row r="18" spans="9:21">
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="63"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="62"/>
       <c r="Q18" s="44" t="s">
         <v>52</v>
       </c>
@@ -2568,13 +2607,13 @@
       </c>
     </row>
     <row r="19" spans="9:21">
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
       <c r="Q19" s="29" t="s">
         <v>82</v>
       </c>
@@ -2585,13 +2624,13 @@
       <c r="T19" s="52"/>
     </row>
     <row r="20" spans="9:21">
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="63"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62"/>
       <c r="Q20" s="29" t="s">
         <v>83</v>
       </c>
@@ -2602,13 +2641,13 @@
       <c r="T20" s="52"/>
     </row>
     <row r="21" spans="9:21">
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="63"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
       <c r="Q21" s="29" t="s">
         <v>8</v>
       </c>
@@ -2619,34 +2658,42 @@
       <c r="T21" s="52"/>
     </row>
     <row r="22" spans="9:21">
-      <c r="I22" s="61"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
     </row>
     <row r="23" spans="9:21">
-      <c r="I23" s="61"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="62"/>
     </row>
     <row r="24" spans="9:21">
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="66"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
@@ -2663,14 +2710,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2690,28 +2729,28 @@
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="6.109375" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" customWidth="1"/>
+    <col min="24" max="24" width="6.44140625" customWidth="1"/>
+    <col min="25" max="25" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25">
@@ -2724,152 +2763,152 @@
       <c r="G1" s="51"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="5" spans="2:25">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="2:25" ht="15.75">
-      <c r="B6" s="77" t="s">
+    <row r="6" spans="2:25" ht="15.6">
+      <c r="B6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-    </row>
-    <row r="7" spans="2:25" ht="15.75">
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="72" t="s">
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+    </row>
+    <row r="7" spans="2:25" ht="15.6">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="73" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="74" t="s">
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
     </row>
     <row r="8" spans="2:25" ht="15.6" customHeight="1">
-      <c r="B8" s="77"/>
-      <c r="C8" s="69" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="71" t="s">
+      <c r="E8" s="79"/>
+      <c r="F8" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71" t="s">
+      <c r="G8" s="76"/>
+      <c r="H8" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71" t="s">
+      <c r="I8" s="76"/>
+      <c r="J8" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71" t="s">
+      <c r="K8" s="76"/>
+      <c r="L8" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="73" t="s">
+      <c r="M8" s="76"/>
+      <c r="N8" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="73" t="s">
+      <c r="O8" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="75" t="s">
+      <c r="P8" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="73" t="s">
+      <c r="R8" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="S8" s="74">
+      <c r="S8" s="73">
         <v>0</v>
       </c>
-      <c r="T8" s="74">
+      <c r="T8" s="73">
         <v>1</v>
       </c>
-      <c r="U8" s="74">
+      <c r="U8" s="73">
         <v>2</v>
       </c>
-      <c r="V8" s="74" t="s">
+      <c r="V8" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="74" t="s">
+      <c r="W8" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="74" t="s">
+      <c r="X8" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="74" t="s">
+      <c r="Y8" s="73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15.75">
-      <c r="B9" s="77"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="72"/>
+    <row r="9" spans="2:25" ht="15.6">
+      <c r="B9" s="70"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
@@ -2894,18 +2933,18 @@
       <c r="M9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
     </row>
     <row r="10" spans="2:25" ht="19.5" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -2957,7 +2996,7 @@
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
     </row>
-    <row r="11" spans="2:25" ht="15.75">
+    <row r="11" spans="2:25" ht="15.6">
       <c r="B11" s="12" t="s">
         <v>49</v>
       </c>
@@ -3047,7 +3086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="15.75">
+    <row r="13" spans="2:25" ht="15.6">
       <c r="B13" s="12" t="s">
         <v>92</v>
       </c>
@@ -3093,11 +3132,23 @@
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
     </row>
-    <row r="14" spans="2:25" ht="15.75">
+    <row r="14" spans="2:25" ht="15.6">
       <c r="B14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3114,18 +3165,6 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S7:Y7"/>
     <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3140,23 +3179,23 @@
   </sheetPr>
   <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
@@ -3169,57 +3208,57 @@
       <c r="G1" s="51"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="111" t="s">
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="112"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B5" s="108"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="109" t="s">
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1">
+      <c r="B5" s="82"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="109" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="110"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3227,26 +3266,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1">
+    <row r="6" spans="2:14" ht="15" thickTop="1">
       <c r="B6" s="18">
         <v>13</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="89" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="E6" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="123" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="124"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="41" t="b">
         <v>0</v>
       </c>
@@ -3258,20 +3297,20 @@
       <c r="B7" s="18">
         <v>14</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="101" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="102"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="42" t="b">
         <v>0</v>
       </c>
@@ -3283,20 +3322,20 @@
       <c r="B8" s="18">
         <v>15</v>
       </c>
-      <c r="C8" s="113"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="101" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="102"/>
+      <c r="J8" s="84"/>
       <c r="K8" s="42" t="b">
         <v>1</v>
       </c>
@@ -3308,20 +3347,20 @@
       <c r="B9" s="18">
         <v>16</v>
       </c>
-      <c r="C9" s="113"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="101" t="s">
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="102"/>
+      <c r="J9" s="84"/>
       <c r="K9" s="42" t="b">
         <v>0</v>
       </c>
@@ -3342,90 +3381,90 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1">
+    <row r="11" spans="2:14" ht="15" thickBot="1">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="2:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B12" s="97" t="s">
+    <row r="12" spans="2:14" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B12" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="97" t="s">
+      <c r="G12" s="124"/>
+      <c r="H12" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="82" t="s">
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="83"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" thickTop="1">
-      <c r="B13" s="81" t="s">
+      <c r="N12" s="112"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickTop="1">
+      <c r="B13" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="85" t="s">
+      <c r="I13" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="95" t="s">
+      <c r="K13" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="80" t="s">
+      <c r="M13" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="92" t="s">
+      <c r="N13" s="91" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="84"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="89"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="116"/>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="22">
@@ -3468,6 +3507,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3484,25 +3542,6 @@
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3512,21 +3551,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D554F47F16D1AE46AF74397CE0A37779" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24441d7a3758428b2811889d7d94fa0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="28a9ec7f-d5a2-44c1-9222-13672e632811" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c373de015648521c434ab6f3362511f8" ns2:_="">
     <xsd:import namespace="28a9ec7f-d5a2-44c1-9222-13672e632811"/>
@@ -3664,24 +3688,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5584EA36-EBBD-4829-BA6A-A76BB62529C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E38DC80-6F0A-473F-856D-44FA13F6FA7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24DA1C50-4D4C-432D-94C8-A2B13520658D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3697,4 +3719,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E38DC80-6F0A-473F-856D-44FA13F6FA7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5584EA36-EBBD-4829-BA6A-A76BB62529C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>